--- a/质量链接数据库.xlsx
+++ b/质量链接数据库.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SUNIANFU/百度云同步盘/startup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\用户目录\我的文档\GitHub\tool321\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16200" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="标准机构列表" sheetId="1" r:id="rId1"/>
     <sheet name="国家机构" sheetId="2" r:id="rId2"/>
     <sheet name="国际机构" sheetId="7" r:id="rId3"/>
-    <sheet name="认证认可" sheetId="4" r:id="rId4"/>
-    <sheet name="认证机构" sheetId="6" r:id="rId5"/>
-    <sheet name="工作表5" sheetId="5" r:id="rId6"/>
-    <sheet name="协会" sheetId="3" r:id="rId7"/>
+    <sheet name="认证机构" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="306">
   <si>
     <t>分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1242,52 +1239,6 @@
   </si>
   <si>
     <t>工信部电信设备认证中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国质量协会</t>
-    <rPh sb="0" eb="1">
-      <t>zhong'guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi'liang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xie'hui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美国质量协会</t>
-    <rPh sb="0" eb="1">
-      <t>mei'guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi'l</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xie'hui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理部门</t>
-    <rPh sb="0" eb="1">
-      <t>guan'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu'men</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国合格评定国家认可委员会</t>
-  </si>
-  <si>
-    <t>http://www.cnas.org.cn</t>
-  </si>
-  <si>
-    <t>中国国家认证认可监督管理委员会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1615,85 +1566,11 @@
     <t>021-62592691</t>
   </si>
   <si>
-    <t>http://cx.cnca.cn/rjwcx/web/cert/index.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cnca.gov.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询入口</t>
-    <rPh sb="0" eb="1">
-      <t>cha'xun</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ru'kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国质量认证中心</t>
-    <rPh sb="0" eb="1">
-      <t>zhong'guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi'liang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ren'zh</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhong'xin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.aqsiq.gov.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.cnca.gov.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.ccaa.org.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国认证认可协会</t>
-    <rPh sb="0" eb="1">
-      <t>zhong'guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ren'zh</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ren'ke</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xie'hui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cqc.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.ccic.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国检验认证（集团）有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.caq.org.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.asq.com.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1725,46 +1602,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>wang'zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gov.cn/shuju/index.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.spc.net.cn/</t>
-  </si>
-  <si>
-    <t>中国质检出版社</t>
-    <rPh sb="0" eb="1">
-      <t>zhong'guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi'jian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>chu'ban'she</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.china-cas.org/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国标准化协会</t>
-    <rPh sb="0" eb="1">
-      <t>zh'guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>biao'zh</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>hua</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xie'hui</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1794,22 +1631,6 @@
     <t>中国物品编码中心</t>
   </si>
   <si>
-    <t>中国标准化研究院</t>
-    <rPh sb="0" eb="1">
-      <t>zhong'guo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>b'zh'h</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>y'j'y</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国特种设备检测研究院</t>
-  </si>
-  <si>
     <t>类别</t>
     <rPh sb="0" eb="1">
       <t>lei'bie</t>
@@ -1817,16 +1638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国计量科学研究院.</t>
-  </si>
-  <si>
-    <t>计量</t>
-    <rPh sb="0" eb="1">
-      <t>ji'liang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.sac.gov.cn/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1836,18 +1647,6 @@
   </si>
   <si>
     <t>http://www.ancc.org.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cnis.gov.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.csei.org.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.nim.ac.cn/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1858,16 +1657,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">国际计量局 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">国际测量技术联合会 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">国际法制计量组织 </t>
-  </si>
-  <si>
     <t>备注</t>
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
@@ -1875,123 +1664,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无效链接</t>
-    <rPh sb="0" eb="1">
-      <t>wu'xiao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>l'jie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">国际实验室认可组织 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">国际认可论坛 </t>
-  </si>
-  <si>
-    <t>http://www.bipm.org/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.imeko.org/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.oiml.org/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://ilac.org/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.iaf.nu/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.european-accreditation.org/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">欧洲认可协作组织 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">美国标准技术研究院 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.nist.gov/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.ptb.de/cms/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">德国物理技术研究院 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">英国国家物理实验室 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">法国国家计量研究所 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">俄罗斯计量局 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">加拿大计量局 </t>
-  </si>
-  <si>
-    <t>日本计量研究实验室</t>
-  </si>
-  <si>
-    <t xml:space="preserve">韩国标准研究所 </t>
-  </si>
-  <si>
     <t xml:space="preserve">新加坡生产力促进局 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国测试技术研究院 </t>
-  </si>
-  <si>
-    <t>中国检验检疫科学研究院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.nimtt.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.caiq.org.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.npl.co.uk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cnam.fr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gost.ru/wps/portal/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.nrc-cnrc.gc.ca</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.aist.go.jp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.kriss.re.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.spring.gov.sg</t>
@@ -2001,8 +1674,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2257,15 +1930,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2288,6 +1952,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2298,6 +1971,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2568,18 +2244,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2593,8 +2269,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2605,8 +2281,8 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:4">
+      <c r="A3" s="25"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2615,8 +2291,8 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:4">
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2625,8 +2301,8 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:4">
+      <c r="A5" s="25"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2635,8 +2311,8 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="25"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2645,8 +2321,8 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="25"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2655,8 +2331,8 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+    <row r="8" spans="1:4">
+      <c r="A8" s="25"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -2665,8 +2341,8 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="25"/>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2675,8 +2351,8 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="25"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2685,8 +2361,8 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="25"/>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
@@ -2695,8 +2371,8 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="25"/>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
@@ -2705,8 +2381,8 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:4">
+      <c r="A13" s="25"/>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -2715,8 +2391,8 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+    <row r="14" spans="1:4">
+      <c r="A14" s="25"/>
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
@@ -2725,8 +2401,8 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="25"/>
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
@@ -2735,8 +2411,8 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:4">
+      <c r="A16" s="25"/>
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
@@ -2745,8 +2421,8 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="25"/>
       <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
@@ -2755,8 +2431,8 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="25"/>
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
@@ -2765,8 +2441,8 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="25"/>
       <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
@@ -2775,8 +2451,8 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:4">
+      <c r="A20" s="25"/>
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -2785,8 +2461,8 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="25"/>
       <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
@@ -2795,8 +2471,8 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+    <row r="22" spans="1:4">
+      <c r="A22" s="25"/>
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
@@ -2805,8 +2481,8 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+    <row r="23" spans="1:4">
+      <c r="A23" s="25"/>
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
@@ -2815,8 +2491,8 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:4">
+      <c r="A24" s="25"/>
       <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
@@ -2825,8 +2501,8 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2837,8 +2513,8 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
+    <row r="26" spans="1:4">
+      <c r="A26" s="25"/>
       <c r="B26" s="5" t="s">
         <v>54</v>
       </c>
@@ -2847,8 +2523,8 @@
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="25"/>
       <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
@@ -2857,8 +2533,8 @@
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
+    <row r="28" spans="1:4">
+      <c r="A28" s="25"/>
       <c r="B28" s="2" t="s">
         <v>58</v>
       </c>
@@ -2867,8 +2543,8 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
+    <row r="29" spans="1:4">
+      <c r="A29" s="25"/>
       <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
@@ -2877,8 +2553,8 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
+    <row r="30" spans="1:4">
+      <c r="A30" s="25"/>
       <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
@@ -2887,8 +2563,8 @@
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
+    <row r="31" spans="1:4">
+      <c r="A31" s="25"/>
       <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
@@ -2897,8 +2573,8 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
+    <row r="32" spans="1:4">
+      <c r="A32" s="25"/>
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -2907,8 +2583,8 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
+    <row r="33" spans="1:4">
+      <c r="A33" s="25"/>
       <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
@@ -2917,8 +2593,8 @@
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+    <row r="34" spans="1:4">
+      <c r="A34" s="26"/>
       <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
@@ -2927,8 +2603,8 @@
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="24" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2939,8 +2615,8 @@
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
+    <row r="36" spans="1:4">
+      <c r="A36" s="25"/>
       <c r="B36" s="2" t="s">
         <v>75</v>
       </c>
@@ -2949,8 +2625,8 @@
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
+    <row r="37" spans="1:4">
+      <c r="A37" s="25"/>
       <c r="B37" s="2" t="s">
         <v>77</v>
       </c>
@@ -2959,8 +2635,8 @@
       </c>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
+    <row r="38" spans="1:4">
+      <c r="A38" s="25"/>
       <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
@@ -2969,8 +2645,8 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
+    <row r="39" spans="1:4">
+      <c r="A39" s="25"/>
       <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
@@ -2979,8 +2655,8 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
+    <row r="40" spans="1:4">
+      <c r="A40" s="25"/>
       <c r="B40" s="2" t="s">
         <v>83</v>
       </c>
@@ -2989,8 +2665,8 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
+    <row r="41" spans="1:4">
+      <c r="A41" s="25"/>
       <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
@@ -2999,8 +2675,8 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
+    <row r="42" spans="1:4">
+      <c r="A42" s="25"/>
       <c r="B42" s="2" t="s">
         <v>87</v>
       </c>
@@ -3009,8 +2685,8 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
+    <row r="43" spans="1:4">
+      <c r="A43" s="25"/>
       <c r="B43" s="2" t="s">
         <v>89</v>
       </c>
@@ -3019,8 +2695,8 @@
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
+    <row r="44" spans="1:4">
+      <c r="A44" s="26"/>
       <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
@@ -3029,8 +2705,8 @@
       </c>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="24" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -3041,8 +2717,8 @@
       </c>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
+    <row r="46" spans="1:4">
+      <c r="A46" s="25"/>
       <c r="B46" s="7" t="s">
         <v>96</v>
       </c>
@@ -3051,8 +2727,8 @@
       </c>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
+    <row r="47" spans="1:4">
+      <c r="A47" s="25"/>
       <c r="B47" s="7" t="s">
         <v>98</v>
       </c>
@@ -3061,8 +2737,8 @@
       </c>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
+    <row r="48" spans="1:4">
+      <c r="A48" s="25"/>
       <c r="B48" s="7" t="s">
         <v>100</v>
       </c>
@@ -3071,8 +2747,8 @@
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
+    <row r="49" spans="1:4">
+      <c r="A49" s="25"/>
       <c r="B49" s="7" t="s">
         <v>102</v>
       </c>
@@ -3081,8 +2757,8 @@
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
+    <row r="50" spans="1:4">
+      <c r="A50" s="25"/>
       <c r="B50" s="7" t="s">
         <v>104</v>
       </c>
@@ -3091,8 +2767,8 @@
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
+    <row r="51" spans="1:4">
+      <c r="A51" s="25"/>
       <c r="B51" s="9" t="s">
         <v>106</v>
       </c>
@@ -3101,8 +2777,8 @@
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
+    <row r="52" spans="1:4">
+      <c r="A52" s="25"/>
       <c r="B52" s="9" t="s">
         <v>108</v>
       </c>
@@ -3111,8 +2787,8 @@
       </c>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
+    <row r="53" spans="1:4">
+      <c r="A53" s="25"/>
       <c r="B53" s="9" t="s">
         <v>110</v>
       </c>
@@ -3121,8 +2797,8 @@
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
+    <row r="54" spans="1:4">
+      <c r="A54" s="25"/>
       <c r="B54" s="9" t="s">
         <v>112</v>
       </c>
@@ -3131,8 +2807,8 @@
       </c>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
+    <row r="55" spans="1:4">
+      <c r="A55" s="25"/>
       <c r="B55" s="9" t="s">
         <v>114</v>
       </c>
@@ -3141,8 +2817,8 @@
       </c>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
+    <row r="56" spans="1:4" ht="26.25">
+      <c r="A56" s="25"/>
       <c r="B56" s="10" t="s">
         <v>116</v>
       </c>
@@ -3151,8 +2827,8 @@
       </c>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="17"/>
+    <row r="57" spans="1:4">
+      <c r="A57" s="25"/>
       <c r="B57" s="9" t="s">
         <v>118</v>
       </c>
@@ -3161,8 +2837,8 @@
       </c>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
+    <row r="58" spans="1:4">
+      <c r="A58" s="25"/>
       <c r="B58" s="9" t="s">
         <v>120</v>
       </c>
@@ -3171,8 +2847,8 @@
       </c>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
+    <row r="59" spans="1:4">
+      <c r="A59" s="25"/>
       <c r="B59" s="7" t="s">
         <v>122</v>
       </c>
@@ -3181,8 +2857,8 @@
       </c>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
+    <row r="60" spans="1:4">
+      <c r="A60" s="25"/>
       <c r="B60" s="9" t="s">
         <v>124</v>
       </c>
@@ -3191,8 +2867,8 @@
       </c>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
+    <row r="61" spans="1:4">
+      <c r="A61" s="25"/>
       <c r="B61" s="9" t="s">
         <v>126</v>
       </c>
@@ -3201,8 +2877,8 @@
       </c>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="17"/>
+    <row r="62" spans="1:4">
+      <c r="A62" s="25"/>
       <c r="B62" s="9" t="s">
         <v>128</v>
       </c>
@@ -3211,8 +2887,8 @@
       </c>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
+    <row r="63" spans="1:4">
+      <c r="A63" s="25"/>
       <c r="B63" s="2" t="s">
         <v>130</v>
       </c>
@@ -3221,8 +2897,8 @@
       </c>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
+    <row r="64" spans="1:4">
+      <c r="A64" s="25"/>
       <c r="B64" s="2" t="s">
         <v>132</v>
       </c>
@@ -3231,8 +2907,8 @@
       </c>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="17"/>
+    <row r="65" spans="1:4">
+      <c r="A65" s="25"/>
       <c r="B65" s="2" t="s">
         <v>134</v>
       </c>
@@ -3241,8 +2917,8 @@
       </c>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
+    <row r="66" spans="1:4">
+      <c r="A66" s="25"/>
       <c r="B66" s="2" t="s">
         <v>136</v>
       </c>
@@ -3251,8 +2927,8 @@
       </c>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="17"/>
+    <row r="67" spans="1:4">
+      <c r="A67" s="25"/>
       <c r="B67" s="2" t="s">
         <v>138</v>
       </c>
@@ -3261,8 +2937,8 @@
       </c>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="17"/>
+    <row r="68" spans="1:4">
+      <c r="A68" s="25"/>
       <c r="B68" s="2" t="s">
         <v>140</v>
       </c>
@@ -3271,8 +2947,8 @@
       </c>
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="17"/>
+    <row r="69" spans="1:4">
+      <c r="A69" s="25"/>
       <c r="B69" s="2" t="s">
         <v>142</v>
       </c>
@@ -3281,8 +2957,8 @@
       </c>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="17"/>
+    <row r="70" spans="1:4">
+      <c r="A70" s="25"/>
       <c r="B70" s="2" t="s">
         <v>144</v>
       </c>
@@ -3291,8 +2967,8 @@
       </c>
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="17"/>
+    <row r="71" spans="1:4">
+      <c r="A71" s="25"/>
       <c r="B71" s="2" t="s">
         <v>146</v>
       </c>
@@ -3301,8 +2977,8 @@
       </c>
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="17"/>
+    <row r="72" spans="1:4">
+      <c r="A72" s="25"/>
       <c r="B72" s="2" t="s">
         <v>148</v>
       </c>
@@ -3311,8 +2987,8 @@
       </c>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="17"/>
+    <row r="73" spans="1:4">
+      <c r="A73" s="25"/>
       <c r="B73" s="2" t="s">
         <v>150</v>
       </c>
@@ -3321,8 +2997,8 @@
       </c>
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="17"/>
+    <row r="74" spans="1:4">
+      <c r="A74" s="25"/>
       <c r="B74" s="2" t="s">
         <v>152</v>
       </c>
@@ -3331,8 +3007,8 @@
       </c>
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="17"/>
+    <row r="75" spans="1:4">
+      <c r="A75" s="25"/>
       <c r="B75" s="2" t="s">
         <v>154</v>
       </c>
@@ -3341,8 +3017,8 @@
       </c>
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="17"/>
+    <row r="76" spans="1:4">
+      <c r="A76" s="25"/>
       <c r="B76" s="2" t="s">
         <v>156</v>
       </c>
@@ -3351,8 +3027,8 @@
       </c>
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="17"/>
+    <row r="77" spans="1:4">
+      <c r="A77" s="25"/>
       <c r="B77" s="2" t="s">
         <v>158</v>
       </c>
@@ -3361,8 +3037,8 @@
       </c>
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="17"/>
+    <row r="78" spans="1:4">
+      <c r="A78" s="25"/>
       <c r="B78" s="2" t="s">
         <v>160</v>
       </c>
@@ -3371,8 +3047,8 @@
       </c>
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="17"/>
+    <row r="79" spans="1:4">
+      <c r="A79" s="25"/>
       <c r="B79" s="2" t="s">
         <v>162</v>
       </c>
@@ -3381,8 +3057,8 @@
       </c>
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="17"/>
+    <row r="80" spans="1:4">
+      <c r="A80" s="25"/>
       <c r="B80" s="2" t="s">
         <v>164</v>
       </c>
@@ -3391,8 +3067,8 @@
       </c>
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
+    <row r="81" spans="1:5">
+      <c r="A81" s="26"/>
       <c r="B81" s="2" t="s">
         <v>166</v>
       </c>
@@ -3401,8 +3077,8 @@
       </c>
       <c r="D81" s="6"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="16" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="24" t="s">
         <v>168</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -3415,8 +3091,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="17"/>
+    <row r="83" spans="1:5">
+      <c r="A83" s="25"/>
       <c r="B83" s="2" t="s">
         <v>172</v>
       </c>
@@ -3427,8 +3103,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="17"/>
+    <row r="84" spans="1:5">
+      <c r="A84" s="25"/>
       <c r="B84" s="5" t="s">
         <v>175</v>
       </c>
@@ -3437,13 +3113,13 @@
       </c>
       <c r="D84" s="6"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="18"/>
+    <row r="85" spans="1:5">
+      <c r="A85" s="26"/>
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
       <c r="D85" s="6"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="C86" s="14" t="s">
         <v>183</v>
       </c>
@@ -3469,20 +3145,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>177</v>
       </c>
@@ -3492,28 +3167,19 @@
       <c r="C1" t="s">
         <v>180</v>
       </c>
-      <c r="D1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3524,169 +3190,73 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>323</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="E12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>358</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>315</v>
-      </c>
-      <c r="C19" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20</v>
-      </c>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" s="13"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3695,16 +3265,9 @@
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C2" r:id="rId4"/>
-    <hyperlink ref="D2" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
-    <hyperlink ref="C8" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="C13" r:id="rId13"/>
-    <hyperlink ref="C14" r:id="rId14"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3714,18 +3277,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="22" t="s">
         <v>177</v>
       </c>
       <c r="B1" t="s">
@@ -3735,283 +3298,130 @@
         <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="E1" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="F1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="E3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" t="s">
-        <v>331</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="E5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="E6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
-        <v>7</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="E8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="E9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="E10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="E11" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="E12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="E13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="E14" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="E15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="22"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="22"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="22"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="22"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="22"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="22"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="22"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="22"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="22"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="22"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="22"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="22"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="22"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="22"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="E16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
+    <row r="18" spans="1:1">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
+    <row r="19" spans="1:1">
+      <c r="A19" s="22">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
+    <row r="20" spans="1:1">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25">
+    <row r="21" spans="1:1">
+      <c r="A21" s="22">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="C2" r:id="rId6"/>
-    <hyperlink ref="C3" r:id="rId7"/>
-    <hyperlink ref="C5" r:id="rId8"/>
-    <hyperlink ref="C6" r:id="rId9"/>
-    <hyperlink ref="C7" r:id="rId10"/>
-    <hyperlink ref="C8" r:id="rId11"/>
-    <hyperlink ref="C9" r:id="rId12"/>
-    <hyperlink ref="B9" r:id="rId13"/>
-    <hyperlink ref="B10" r:id="rId14"/>
-    <hyperlink ref="B11" r:id="rId15"/>
-    <hyperlink ref="B12" r:id="rId16"/>
-    <hyperlink ref="B13" r:id="rId17"/>
-    <hyperlink ref="B14" r:id="rId18"/>
-    <hyperlink ref="B15" r:id="rId19"/>
-    <hyperlink ref="B16" r:id="rId20"/>
-    <hyperlink ref="C10" r:id="rId21"/>
-    <hyperlink ref="C11" r:id="rId22"/>
-    <hyperlink ref="C12" r:id="rId23"/>
-    <hyperlink ref="C13" r:id="rId24"/>
-    <hyperlink ref="C14" r:id="rId25"/>
-    <hyperlink ref="C15" r:id="rId26"/>
-    <hyperlink ref="C16" r:id="rId27"/>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="C16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4019,88 +3429,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.1640625" customWidth="1"/>
+    <col min="4" max="4" width="48.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>177</v>
       </c>
@@ -4111,73 +3453,73 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="B2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" t="s">
         <v>190</v>
       </c>
-      <c r="B6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" t="s">
-        <v>196</v>
-      </c>
       <c r="K6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F7">
         <v>100070</v>
@@ -4189,39 +3531,39 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P7">
         <v>200040</v>
       </c>
       <c r="Q7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" t="s">
         <v>197</v>
-      </c>
-      <c r="C8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" t="s">
-        <v>203</v>
       </c>
       <c r="F8">
         <v>100048</v>
@@ -4233,36 +3575,36 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
+        <v>217</v>
+      </c>
+      <c r="M8" t="s">
+        <v>222</v>
+      </c>
+      <c r="N8" t="s">
         <v>223</v>
       </c>
-      <c r="M8" t="s">
-        <v>228</v>
-      </c>
-      <c r="N8" t="s">
-        <v>229</v>
-      </c>
       <c r="O8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F9">
         <v>200050</v>
@@ -4274,39 +3616,39 @@
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="O9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P9">
         <v>200040</v>
       </c>
       <c r="Q9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F10">
         <v>100086</v>
@@ -4318,39 +3660,39 @@
         <v>4</v>
       </c>
       <c r="L10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="N10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P10">
         <v>200120</v>
       </c>
       <c r="Q10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F11">
         <v>100006</v>
@@ -4362,39 +3704,39 @@
         <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M11" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="N11" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O11" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P11">
         <v>200120</v>
       </c>
       <c r="Q11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F12">
         <v>100048</v>
@@ -4406,39 +3748,39 @@
         <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N12" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="O12" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P12">
         <v>200031</v>
       </c>
       <c r="Q12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F13">
         <v>510600</v>
@@ -4450,145 +3792,145 @@
         <v>7</v>
       </c>
       <c r="L13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M13" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="O13" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P13">
         <v>100020</v>
       </c>
       <c r="Q13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="31.5">
+      <c r="A14" s="16">
         <v>8</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="F14" s="21">
+      <c r="B14" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="18">
         <v>100028</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="19">
         <v>43444</v>
       </c>
       <c r="K14">
         <v>8</v>
       </c>
       <c r="L14" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="N14" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="O14" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P14">
         <v>200336</v>
       </c>
       <c r="Q14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="31.5">
+      <c r="A15" s="16">
         <v>9</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="F15" s="21">
+      <c r="B15" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="18">
         <v>300074</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="19">
         <v>43444</v>
       </c>
       <c r="K15">
         <v>9</v>
       </c>
       <c r="L15" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M15" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="N15" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="O15" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P15">
         <v>471039</v>
       </c>
       <c r="Q15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="31.5">
+      <c r="A16" s="16">
         <v>10</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="F16" s="21">
+      <c r="B16" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="18">
         <v>110016</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="19">
         <v>43444</v>
       </c>
       <c r="K16">
         <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M16" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N16" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O16">
         <f>86-512-55118399</f>
@@ -4601,124 +3943,124 @@
         <v>55118398</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+    <row r="17" spans="1:17" ht="31.5">
+      <c r="A17" s="16">
         <v>11</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="F17" s="21">
+      <c r="B17" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="18">
         <v>100007</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="19">
         <v>43444</v>
       </c>
       <c r="K17">
         <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M17" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N17" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O17" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P17">
         <v>518067</v>
       </c>
       <c r="Q17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="31.5">
+      <c r="A18" s="16">
         <v>12</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="F18" s="21">
+      <c r="B18" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="18">
         <v>510610</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="19">
         <v>43444</v>
       </c>
       <c r="K18">
         <v>12</v>
       </c>
       <c r="L18" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M18" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N18" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O18" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="31.5">
+      <c r="A19" s="16">
         <v>13</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="F19" s="21">
+      <c r="B19" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F19" s="18">
         <v>310005</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="19">
         <v>43444</v>
       </c>
       <c r="K19">
         <v>13</v>
       </c>
       <c r="L19" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M19" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="N19" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O19">
         <v>67680181</v>
@@ -4727,48 +4069,48 @@
         <v>67680209</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+    <row r="20" spans="1:17" ht="31.5">
+      <c r="A20" s="16">
         <v>14</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="F20" s="21">
+      <c r="B20" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20" s="18">
         <v>100044</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="19">
         <v>43444</v>
       </c>
       <c r="K20">
         <v>14</v>
       </c>
       <c r="L20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="N20" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="20"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="G22" s="15"/>
     </row>
   </sheetData>
@@ -4792,136 +4134,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C2" r:id="rId4"/>
-    <hyperlink ref="C3" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>